--- a/20220525浮生若梦水果套餐.xlsx
+++ b/20220525浮生若梦水果套餐.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16895" windowHeight="12708"/>
+    <workbookView windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="顾客购买表" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="427">
   <si>
     <t>下单人</t>
   </si>
@@ -100,7 +100,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>冰淇淋黄心西瓜(一箱四个约14斤)冰淇淋黄心西瓜(一箱四个约14斤)冰淇淋黄心西瓜(一箱四个约14斤)冰淇淋黄心西瓜(一箱四个约14斤)</t>
+    <t>冰淇淋黄心西瓜(一箱四个约14斤)</t>
   </si>
   <si>
     <t>一箱四个约14斤</t>
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>冰淇淋黄心西瓜(一箱四个约14斤)</t>
   </si>
   <si>
     <t>上海市闵行区紫龙路500弄 嘉怡水岸·睿府86号701</t>
@@ -1309,10 +1306,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1320,51 +1317,6 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1389,34 +1341,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1424,22 +1359,6 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1460,10 +1379,88 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1483,7 +1480,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1495,19 +1510,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1519,7 +1534,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1531,31 +1576,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1567,103 +1654,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1674,17 +1671,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1703,17 +1689,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1729,9 +1733,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1751,26 +1757,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1779,148 +1776,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2252,8 +2249,8 @@
   <sheetPr/>
   <dimension ref="A1:X111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15:U16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2653,7 +2650,7 @@
         <v>54</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>28</v>
@@ -2700,16 +2697,16 @@
         <v>13812345681</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W6" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="X6" s="1" t="s">
         <v>36</v>
@@ -2717,19 +2714,19 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>28</v>
@@ -2776,19 +2773,19 @@
         <v>13812345682</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -2803,13 +2800,13 @@
         <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -2853,36 +2850,36 @@
         <v>13812345682</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>47</v>
       </c>
       <c r="V8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>28</v>
@@ -2929,16 +2926,16 @@
         <v>13812345683</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X9" s="1" t="s">
         <v>36</v>
@@ -2956,13 +2953,13 @@
         <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -3006,16 +3003,16 @@
         <v>13812345683</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>47</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X10" s="1" t="s">
         <v>36</v>
@@ -3023,22 +3020,22 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -3082,16 +3079,16 @@
         <v>13812345684</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W11" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="X11" s="1" t="s">
         <v>36</v>
@@ -3109,7 +3106,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>44</v>
@@ -3159,16 +3156,16 @@
         <v>13812345684</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>47</v>
       </c>
       <c r="V12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W12" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>36</v>
@@ -3176,19 +3173,19 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>28</v>
@@ -3235,33 +3232,33 @@
         <v>13812345685</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="X13" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>44</v>
@@ -3311,13 +3308,13 @@
         <v>13812345686</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W14" s="1" t="s">
         <v>26</v>
@@ -3328,19 +3325,19 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>28</v>
@@ -3387,16 +3384,16 @@
         <v>13812345687</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W15" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>36</v>
@@ -3414,13 +3411,13 @@
         <v>25</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -3464,16 +3461,16 @@
         <v>13812345687</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>47</v>
       </c>
       <c r="V16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W16" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="X16" s="1" t="s">
         <v>36</v>
@@ -3481,16 +3478,16 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>44</v>
@@ -3540,16 +3537,16 @@
         <v>13812345688</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="W17" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="X17" s="1" t="s">
         <v>36</v>
@@ -3557,22 +3554,22 @@
     </row>
     <row r="18" spans="1:24">
       <c r="A18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="E18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -3616,16 +3613,16 @@
         <v>13812345689</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="W18" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="X18" s="1" t="s">
         <v>36</v>
@@ -3633,22 +3630,22 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="E19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -3692,19 +3689,19 @@
         <v>13812345690</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="W19" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="W19" s="1" t="s">
+      <c r="X19" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -3719,13 +3716,13 @@
         <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -3769,39 +3766,39 @@
         <v>13812345690</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>47</v>
       </c>
       <c r="V20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="W20" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="X20" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -3845,16 +3842,16 @@
         <v>13812345691</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X21" s="1" t="s">
         <v>36</v>
@@ -3862,22 +3859,22 @@
     </row>
     <row r="22" spans="1:24">
       <c r="A22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="E22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -3921,39 +3918,39 @@
         <v>13812345692</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W22" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="W22" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="X22" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:24">
       <c r="A23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="E23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -3997,16 +3994,16 @@
         <v>13812345693</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X23" s="1" t="s">
         <v>36</v>
@@ -4024,13 +4021,13 @@
         <v>25</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -4074,16 +4071,16 @@
         <v>13812345693</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>47</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X24" s="1" t="s">
         <v>36</v>
@@ -4091,22 +4088,22 @@
     </row>
     <row r="25" spans="1:24">
       <c r="A25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="E25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
@@ -4150,16 +4147,16 @@
         <v>13812345694</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="W25" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="W25" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="X25" s="1" t="s">
         <v>36</v>
@@ -4167,22 +4164,22 @@
     </row>
     <row r="26" spans="1:24">
       <c r="A26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
@@ -4226,16 +4223,16 @@
         <v>13812345695</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="W26" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="W26" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="X26" s="1" t="s">
         <v>36</v>
@@ -4243,22 +4240,22 @@
     </row>
     <row r="27" spans="1:24">
       <c r="A27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="E27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
@@ -4302,16 +4299,16 @@
         <v>13812345696</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X27" s="1" t="s">
         <v>36</v>
@@ -4329,7 +4326,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>44</v>
@@ -4379,16 +4376,16 @@
         <v>13812345696</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>47</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X28" s="1" t="s">
         <v>36</v>
@@ -4396,19 +4393,19 @@
     </row>
     <row r="29" spans="1:24">
       <c r="A29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>28</v>
@@ -4455,16 +4452,16 @@
         <v>13812345697</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="W29" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="W29" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="X29" s="1" t="s">
         <v>36</v>
@@ -4482,13 +4479,13 @@
         <v>25</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
@@ -4532,16 +4529,16 @@
         <v>13812345697</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>47</v>
       </c>
       <c r="V30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="W30" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="X30" s="1" t="s">
         <v>36</v>
@@ -4549,19 +4546,19 @@
     </row>
     <row r="31" spans="1:24">
       <c r="A31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>28</v>
@@ -4608,39 +4605,39 @@
         <v>13812345698</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W31" s="1" t="s">
         <v>54</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:24">
       <c r="A32" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="E32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
@@ -4684,16 +4681,16 @@
         <v>13812345699</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V32" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="W32" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="W32" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="X32" s="1" t="s">
         <v>36</v>
@@ -4701,16 +4698,16 @@
     </row>
     <row r="33" spans="1:24">
       <c r="A33" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>44</v>
@@ -4760,13 +4757,13 @@
         <v>13812345700</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W33" s="1" t="s">
         <v>26</v>
@@ -4777,22 +4774,22 @@
     </row>
     <row r="34" spans="1:24">
       <c r="A34" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="E34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G34" s="1">
         <v>1</v>
@@ -4836,39 +4833,39 @@
         <v>13812345701</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:24">
       <c r="A35" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="E35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -4912,19 +4909,19 @@
         <v>13812345702</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V35" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W35" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="W35" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="X35" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -4939,13 +4936,13 @@
         <v>25</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G36" s="1">
         <v>1</v>
@@ -4989,39 +4986,39 @@
         <v>13812345702</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>47</v>
       </c>
       <c r="V36" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W36" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="W36" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="X36" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:24">
       <c r="A37" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="G37" s="1">
         <v>1</v>
@@ -5065,19 +5062,19 @@
         <v>13812345703</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U37" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="W37" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="W37" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="X37" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -5092,13 +5089,13 @@
         <v>25</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
@@ -5142,19 +5139,19 @@
         <v>13812345704</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U38" s="1" t="s">
         <v>47</v>
       </c>
       <c r="V38" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="W38" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="W38" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="X38" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -5169,13 +5166,13 @@
         <v>25</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
@@ -5219,36 +5216,36 @@
         <v>13812345704</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U39" s="1" t="s">
         <v>47</v>
       </c>
       <c r="V39" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="W39" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="W39" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="X39" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:24">
       <c r="A40" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="E40" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>28</v>
@@ -5295,13 +5292,13 @@
         <v>13812345705</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U40" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="W40" s="1" t="s">
         <v>54</v>
@@ -5322,13 +5319,13 @@
         <v>25</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="G41" s="1">
         <v>1</v>
@@ -5372,13 +5369,13 @@
         <v>13812345705</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U41" s="1" t="s">
         <v>47</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="W41" s="1" t="s">
         <v>54</v>
@@ -5399,13 +5396,13 @@
         <v>25</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G42" s="1">
         <v>1</v>
@@ -5449,13 +5446,13 @@
         <v>13812345705</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>47</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="W42" s="1" t="s">
         <v>54</v>
@@ -5466,19 +5463,19 @@
     </row>
     <row r="43" spans="1:24">
       <c r="A43" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="E43" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>28</v>
@@ -5525,19 +5522,19 @@
         <v>13812345706</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U43" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V43" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="W43" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="W43" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="X43" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -5552,13 +5549,13 @@
         <v>25</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="G44" s="1">
         <v>1</v>
@@ -5602,36 +5599,36 @@
         <v>13812345706</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U44" s="1" t="s">
         <v>47</v>
       </c>
       <c r="V44" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="W44" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="W44" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="X44" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:24">
       <c r="A45" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>28</v>
@@ -5678,36 +5675,36 @@
         <v>13812345707</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U45" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X45" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:24">
       <c r="A46" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="E46" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>28</v>
@@ -5754,36 +5751,36 @@
         <v>13812345708</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U46" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V46" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="W46" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="W46" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="X46" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:24">
       <c r="A47" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="E47" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>28</v>
@@ -5830,16 +5827,16 @@
         <v>13812345709</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U47" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V47" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="W47" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="W47" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="X47" s="1" t="s">
         <v>36</v>
@@ -5857,13 +5854,13 @@
         <v>25</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="G48" s="1">
         <v>1</v>
@@ -5907,16 +5904,16 @@
         <v>13812345709</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U48" s="1" t="s">
         <v>47</v>
       </c>
       <c r="V48" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="W48" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="W48" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="X48" s="1" t="s">
         <v>36</v>
@@ -5934,7 +5931,7 @@
         <v>25</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>39</v>
@@ -5984,16 +5981,16 @@
         <v>13812345709</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U49" s="1" t="s">
         <v>47</v>
       </c>
       <c r="V49" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="W49" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="W49" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="X49" s="1" t="s">
         <v>36</v>
@@ -6001,19 +5998,19 @@
     </row>
     <row r="50" spans="1:24">
       <c r="A50" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>28</v>
@@ -6060,16 +6057,16 @@
         <v>13812345710</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U50" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V50" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="W50" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="W50" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="X50" s="1" t="s">
         <v>36</v>
@@ -6087,13 +6084,13 @@
         <v>25</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G51" s="1">
         <v>1</v>
@@ -6137,16 +6134,16 @@
         <v>13812345710</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U51" s="1" t="s">
         <v>47</v>
       </c>
       <c r="V51" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="W51" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="W51" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="X51" s="1" t="s">
         <v>36</v>
@@ -6154,19 +6151,19 @@
     </row>
     <row r="52" spans="1:24">
       <c r="A52" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="E52" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>28</v>
@@ -6213,39 +6210,39 @@
         <v>13812345711</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V52" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="W52" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="W52" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="X52" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:24">
       <c r="A53" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="E53" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="G53" s="1">
         <v>1</v>
@@ -6289,7 +6286,7 @@
         <v>13812345712</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>33</v>
@@ -6298,7 +6295,7 @@
         <v>34</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="X53" s="1" t="s">
         <v>36</v>
@@ -6306,22 +6303,22 @@
     </row>
     <row r="54" spans="1:24">
       <c r="A54" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="E54" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="G54" s="1">
         <v>1</v>
@@ -6365,16 +6362,16 @@
         <v>13812345713</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U54" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X54" s="1" t="s">
         <v>36</v>
@@ -6382,22 +6379,22 @@
     </row>
     <row r="55" spans="1:24">
       <c r="A55" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="E55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="G55" s="1">
         <v>1</v>
@@ -6441,19 +6438,19 @@
         <v>13812345714</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="U55" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V55" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="W55" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="W55" s="1" t="s">
+      <c r="X55" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="X55" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:24">
@@ -6468,7 +6465,7 @@
         <v>25</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>44</v>
@@ -6518,24 +6515,24 @@
         <v>13812345714</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="U56" s="1" t="s">
         <v>47</v>
       </c>
       <c r="V56" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="W56" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="W56" s="1" t="s">
+      <c r="X56" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="X56" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:24">
       <c r="A57" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>25</v>
@@ -6544,10 +6541,10 @@
         <v>25</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>28</v>
@@ -6594,13 +6591,13 @@
         <v>13812345715</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U57" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="W57" s="1" t="s">
         <v>35</v>
@@ -6611,7 +6608,7 @@
     </row>
     <row r="58" spans="1:24">
       <c r="A58" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>25</v>
@@ -6620,7 +6617,7 @@
         <v>25</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>39</v>
@@ -6670,16 +6667,16 @@
         <v>13812345716</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U58" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="X58" s="1" t="s">
         <v>36</v>
@@ -6687,7 +6684,7 @@
     </row>
     <row r="59" spans="1:24">
       <c r="A59" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>25</v>
@@ -6696,13 +6693,13 @@
         <v>25</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E59" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="G59" s="1">
         <v>1</v>
@@ -6746,16 +6743,16 @@
         <v>13812345717</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U59" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V59" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="W59" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="W59" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="X59" s="1" t="s">
         <v>36</v>
@@ -6763,7 +6760,7 @@
     </row>
     <row r="60" spans="1:24">
       <c r="A60" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>25</v>
@@ -6772,7 +6769,7 @@
         <v>25</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>44</v>
@@ -6822,16 +6819,16 @@
         <v>13812345718</v>
       </c>
       <c r="T60" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U60" s="1" t="s">
         <v>47</v>
       </c>
       <c r="V60" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="W60" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="W60" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="X60" s="1" t="s">
         <v>36</v>
@@ -6839,16 +6836,16 @@
     </row>
     <row r="61" spans="1:24">
       <c r="A61" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>39</v>
@@ -6898,16 +6895,16 @@
         <v>13812345719</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U61" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="X61" s="1" t="s">
         <v>36</v>
@@ -6925,13 +6922,13 @@
         <v>25</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G62" s="1">
         <v>1</v>
@@ -6975,16 +6972,16 @@
         <v>13812345719</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U62" s="1" t="s">
         <v>47</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="X62" s="1" t="s">
         <v>36</v>
@@ -6992,22 +6989,22 @@
     </row>
     <row r="63" spans="1:24">
       <c r="A63" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="E63" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G63" s="1">
         <v>1</v>
@@ -7051,7 +7048,7 @@
         <v>13812345720</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U63" s="1" t="s">
         <v>33</v>
@@ -7060,30 +7057,30 @@
         <v>34</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:24">
       <c r="A64" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="E64" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="G64" s="1">
         <v>1</v>
@@ -7127,39 +7124,39 @@
         <v>13812345721</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U64" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V64" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W64" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X64" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:24">
       <c r="A65" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="E65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="G65" s="1">
         <v>1</v>
@@ -7203,16 +7200,16 @@
         <v>13812345722</v>
       </c>
       <c r="T65" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U65" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="X65" s="1" t="s">
         <v>36</v>
@@ -7230,7 +7227,7 @@
         <v>25</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>44</v>
@@ -7280,16 +7277,16 @@
         <v>13812345722</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U66" s="1" t="s">
         <v>47</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="X66" s="1" t="s">
         <v>36</v>
@@ -7297,22 +7294,22 @@
     </row>
     <row r="67" spans="1:24">
       <c r="A67" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="E67" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G67" s="1">
         <v>1</v>
@@ -7356,36 +7353,36 @@
         <v>13812345723</v>
       </c>
       <c r="T67" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="U67" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V67" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="W67" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="W67" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="X67" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:24">
       <c r="A68" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="E68" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>28</v>
@@ -7432,36 +7429,36 @@
         <v>13812345724</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="U68" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V68" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X68" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:24">
       <c r="A69" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="E69" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>28</v>
@@ -7508,16 +7505,16 @@
         <v>13812345725</v>
       </c>
       <c r="T69" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U69" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V69" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="W69" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="W69" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="X69" s="1" t="s">
         <v>36</v>
@@ -7525,22 +7522,22 @@
     </row>
     <row r="70" spans="1:24">
       <c r="A70" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="E70" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="G70" s="1">
         <v>1</v>
@@ -7584,19 +7581,19 @@
         <v>13812345726</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="U70" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V70" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="W70" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="W70" s="1" t="s">
+      <c r="X70" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="X70" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="71" spans="1:24">
@@ -7611,7 +7608,7 @@
         <v>25</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>44</v>
@@ -7661,19 +7658,19 @@
         <v>13812345726</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="U71" s="1" t="s">
         <v>47</v>
       </c>
       <c r="V71" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="W71" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="W71" s="1" t="s">
+      <c r="X71" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="X71" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="72" spans="1:24">
@@ -7688,13 +7685,13 @@
         <v>25</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G72" s="1">
         <v>1</v>
@@ -7738,24 +7735,24 @@
         <v>13812345726</v>
       </c>
       <c r="T72" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="U72" s="1" t="s">
         <v>47</v>
       </c>
       <c r="V72" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="W72" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="W72" s="1" t="s">
+      <c r="X72" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="X72" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="73" spans="1:24">
       <c r="A73" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>25</v>
@@ -7764,13 +7761,13 @@
         <v>25</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="G73" s="1">
         <v>1</v>
@@ -7814,13 +7811,13 @@
         <v>13812345727</v>
       </c>
       <c r="T73" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="U73" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="W73" s="1" t="s">
         <v>43</v>
@@ -7841,13 +7838,13 @@
         <v>25</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G74" s="1">
         <v>1</v>
@@ -7891,13 +7888,13 @@
         <v>13812345727</v>
       </c>
       <c r="T74" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="U74" s="1" t="s">
         <v>47</v>
       </c>
       <c r="V74" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="W74" s="1" t="s">
         <v>43</v>
@@ -7908,22 +7905,22 @@
     </row>
     <row r="75" spans="1:24">
       <c r="A75" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="E75" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="G75" s="1">
         <v>1</v>
@@ -7967,39 +7964,39 @@
         <v>13812345728</v>
       </c>
       <c r="T75" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U75" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V75" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="W75" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="W75" s="1" t="s">
+      <c r="X75" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="X75" s="1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="76" spans="1:24">
       <c r="A76" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="E76" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="G76" s="1">
         <v>1</v>
@@ -8043,19 +8040,19 @@
         <v>13812345729</v>
       </c>
       <c r="T76" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="U76" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V76" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="W76" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X76" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:24">
@@ -8070,13 +8067,13 @@
         <v>25</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G77" s="1">
         <v>1</v>
@@ -8120,33 +8117,33 @@
         <v>13812345729</v>
       </c>
       <c r="T77" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="U77" s="1" t="s">
         <v>47</v>
       </c>
       <c r="V77" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X77" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:24">
       <c r="A78" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>44</v>
@@ -8196,24 +8193,24 @@
         <v>13812345730</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U78" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V78" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W78" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X78" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="1:24">
       <c r="A79" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>25</v>
@@ -8222,10 +8219,10 @@
         <v>25</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>28</v>
@@ -8272,39 +8269,39 @@
         <v>13812345731</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U79" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V79" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="W79" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="W79" s="1" t="s">
+      <c r="X79" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="X79" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="80" spans="1:24">
       <c r="A80" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="E80" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="G80" s="1">
         <v>1</v>
@@ -8348,33 +8345,33 @@
         <v>13812345732</v>
       </c>
       <c r="T80" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="U80" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V80" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="W80" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="W80" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="X80" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81" spans="1:24">
       <c r="A81" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>44</v>
@@ -8424,39 +8421,39 @@
         <v>13812345733</v>
       </c>
       <c r="T81" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="U81" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V81" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="W81" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="W81" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="X81" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:24">
       <c r="A82" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="E82" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="G82" s="1">
         <v>1</v>
@@ -8500,16 +8497,16 @@
         <v>13812345734</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="U82" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X82" s="1" t="s">
         <v>36</v>
@@ -8517,7 +8514,7 @@
     </row>
     <row r="83" spans="1:24">
       <c r="A83" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>25</v>
@@ -8529,10 +8526,10 @@
         <v>35</v>
       </c>
       <c r="E83" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="G83" s="1">
         <v>1</v>
@@ -8576,16 +8573,16 @@
         <v>13812345735</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="U83" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X83" s="1" t="s">
         <v>36</v>
@@ -8593,7 +8590,7 @@
     </row>
     <row r="84" spans="1:24">
       <c r="A84" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>25</v>
@@ -8602,7 +8599,7 @@
         <v>25</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>44</v>
@@ -8652,16 +8649,16 @@
         <v>13812345736</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="U84" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="X84" s="1" t="s">
         <v>36</v>
@@ -8669,7 +8666,7 @@
     </row>
     <row r="85" spans="1:24">
       <c r="A85" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>25</v>
@@ -8681,7 +8678,7 @@
         <v>43</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>28</v>
@@ -8728,16 +8725,16 @@
         <v>13812345737</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="U85" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X85" s="1" t="s">
         <v>36</v>
@@ -8745,7 +8742,7 @@
     </row>
     <row r="86" spans="1:24">
       <c r="A86" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>25</v>
@@ -8754,13 +8751,13 @@
         <v>25</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E86" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="G86" s="1">
         <v>1</v>
@@ -8804,16 +8801,16 @@
         <v>13812345738</v>
       </c>
       <c r="T86" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U86" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V86" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W86" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X86" s="1" t="s">
         <v>36</v>
@@ -8821,22 +8818,22 @@
     </row>
     <row r="87" spans="1:24">
       <c r="A87" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="E87" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="G87" s="1">
         <v>1</v>
@@ -8880,16 +8877,16 @@
         <v>13812345739</v>
       </c>
       <c r="T87" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U87" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V87" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W87" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="X87" s="1" t="s">
         <v>36</v>
@@ -8897,22 +8894,22 @@
     </row>
     <row r="88" spans="1:24">
       <c r="A88" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="E88" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="G88" s="1">
         <v>1</v>
@@ -8956,16 +8953,16 @@
         <v>13812345740</v>
       </c>
       <c r="T88" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="U88" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V88" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="W88" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="X88" s="1" t="s">
         <v>36</v>
@@ -8973,22 +8970,22 @@
     </row>
     <row r="89" spans="1:24">
       <c r="A89" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="E89" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G89" s="1">
         <v>1</v>
@@ -9032,24 +9029,24 @@
         <v>13812345741</v>
       </c>
       <c r="T89" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="U89" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W89" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="X89" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:24">
       <c r="A90" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>25</v>
@@ -9061,7 +9058,7 @@
         <v>52</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>28</v>
@@ -9108,7 +9105,7 @@
         <v>13812345742</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="U90" s="1" t="s">
         <v>33</v>
@@ -9117,7 +9114,7 @@
         <v>34</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X90" s="1" t="s">
         <v>36</v>
@@ -9125,22 +9122,22 @@
     </row>
     <row r="91" spans="1:24">
       <c r="A91" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="E91" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G91" s="1">
         <v>1</v>
@@ -9184,39 +9181,39 @@
         <v>13812345743</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="U91" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="X91" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="1:24">
       <c r="A92" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>328</v>
-      </c>
       <c r="E92" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="G92" s="1">
         <v>1</v>
@@ -9260,16 +9257,16 @@
         <v>13812345744</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U92" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W92" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="X92" s="1" t="s">
         <v>36</v>
@@ -9287,13 +9284,13 @@
         <v>25</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E93" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="G93" s="1">
         <v>1</v>
@@ -9337,16 +9334,16 @@
         <v>13812345744</v>
       </c>
       <c r="T93" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U93" s="1" t="s">
         <v>47</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W93" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="X93" s="1" t="s">
         <v>36</v>
@@ -9364,13 +9361,13 @@
         <v>25</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E94" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G94" s="1">
         <v>1</v>
@@ -9414,16 +9411,16 @@
         <v>13812345744</v>
       </c>
       <c r="T94" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U94" s="1" t="s">
         <v>47</v>
       </c>
       <c r="V94" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W94" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="X94" s="1" t="s">
         <v>36</v>
@@ -9431,7 +9428,7 @@
     </row>
     <row r="95" spans="1:24">
       <c r="A95" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>25</v>
@@ -9440,10 +9437,10 @@
         <v>25</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>28</v>
@@ -9490,16 +9487,16 @@
         <v>13812345745</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U95" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="X95" s="1" t="s">
         <v>36</v>
@@ -9507,7 +9504,7 @@
     </row>
     <row r="96" spans="1:24">
       <c r="A96" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>25</v>
@@ -9516,13 +9513,13 @@
         <v>25</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E96" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="G96" s="1">
         <v>1</v>
@@ -9566,16 +9563,16 @@
         <v>13812345746</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U96" s="1" t="s">
         <v>47</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="X96" s="1" t="s">
         <v>36</v>
@@ -9583,19 +9580,19 @@
     </row>
     <row r="97" spans="1:24">
       <c r="A97" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="E97" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>28</v>
@@ -9642,7 +9639,7 @@
         <v>13812345747</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="U97" s="1" t="s">
         <v>33</v>
@@ -9651,10 +9648,10 @@
         <v>51</v>
       </c>
       <c r="W97" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X97" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:24">
@@ -9669,7 +9666,7 @@
         <v>25</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>44</v>
@@ -9719,7 +9716,7 @@
         <v>13812345747</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="U98" s="1" t="s">
         <v>47</v>
@@ -9728,10 +9725,10 @@
         <v>51</v>
       </c>
       <c r="W98" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X98" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:24">
@@ -9746,13 +9743,13 @@
         <v>25</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E99" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G99" s="1">
         <v>1</v>
@@ -9796,7 +9793,7 @@
         <v>13812345747</v>
       </c>
       <c r="T99" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="U99" s="1" t="s">
         <v>47</v>
@@ -9805,30 +9802,30 @@
         <v>51</v>
       </c>
       <c r="W99" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X99" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:24">
       <c r="A100" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="E100" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="G100" s="1">
         <v>1</v>
@@ -9872,39 +9869,39 @@
         <v>13812345748</v>
       </c>
       <c r="T100" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="U100" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V100" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="W100" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="X100" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101" spans="1:24">
       <c r="A101" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="E101" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="G101" s="1">
         <v>1</v>
@@ -9948,16 +9945,16 @@
         <v>13812345749</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="U101" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="W101" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="X101" s="1" t="s">
         <v>36</v>
@@ -9975,13 +9972,13 @@
         <v>25</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E102" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G102" s="1">
         <v>1</v>
@@ -10025,16 +10022,16 @@
         <v>13812345749</v>
       </c>
       <c r="T102" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="U102" s="1" t="s">
         <v>47</v>
       </c>
       <c r="V102" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="W102" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="X102" s="1" t="s">
         <v>36</v>
@@ -10042,7 +10039,7 @@
     </row>
     <row r="103" spans="1:24">
       <c r="A103" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>25</v>
@@ -10051,10 +10048,10 @@
         <v>25</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>28</v>
@@ -10101,16 +10098,16 @@
         <v>13812345750</v>
       </c>
       <c r="T103" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="U103" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V103" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W103" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="X103" s="1" t="s">
         <v>36</v>
@@ -10128,13 +10125,13 @@
         <v>25</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E104" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="G104" s="1">
         <v>1</v>
@@ -10178,16 +10175,16 @@
         <v>13812345750</v>
       </c>
       <c r="T104" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="U104" s="1" t="s">
         <v>47</v>
       </c>
       <c r="V104" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W104" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="X104" s="1" t="s">
         <v>36</v>
@@ -10205,13 +10202,13 @@
         <v>25</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E105" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="G105" s="1">
         <v>1</v>
@@ -10255,16 +10252,16 @@
         <v>13812345750</v>
       </c>
       <c r="T105" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="U105" s="1" t="s">
         <v>47</v>
       </c>
       <c r="V105" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W105" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="X105" s="1" t="s">
         <v>36</v>
@@ -10272,22 +10269,22 @@
     </row>
     <row r="106" spans="1:24">
       <c r="A106" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="C106" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E106" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="G106" s="1">
         <v>1</v>
@@ -10331,16 +10328,16 @@
         <v>13812345751</v>
       </c>
       <c r="T106" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="U106" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V106" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W106" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X106" s="1" t="s">
         <v>36</v>
@@ -10348,7 +10345,7 @@
     </row>
     <row r="107" spans="1:24">
       <c r="A107" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>25</v>
@@ -10357,13 +10354,13 @@
         <v>25</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E107" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="G107" s="1">
         <v>1</v>
@@ -10407,19 +10404,19 @@
         <v>13812345752</v>
       </c>
       <c r="T107" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="U107" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V107" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W107" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="X107" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108" spans="1:24">
@@ -10434,13 +10431,13 @@
         <v>25</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E108" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="G108" s="1">
         <v>1</v>
@@ -10484,24 +10481,24 @@
         <v>13812345752</v>
       </c>
       <c r="T108" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="U108" s="1" t="s">
         <v>47</v>
       </c>
       <c r="V108" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W108" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="X108" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:24">
       <c r="A109" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>25</v>
@@ -10510,13 +10507,13 @@
         <v>25</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E109" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="G109" s="1">
         <v>1</v>
@@ -10560,13 +10557,13 @@
         <v>13812345753</v>
       </c>
       <c r="T109" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="U109" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V109" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W109" s="1" t="s">
         <v>54</v>
@@ -10577,16 +10574,16 @@
     </row>
     <row r="110" spans="1:24">
       <c r="A110" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>44</v>
@@ -10636,39 +10633,39 @@
         <v>13812345754</v>
       </c>
       <c r="T110" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="U110" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V110" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="W110" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="X110" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:24">
       <c r="A111" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="E111" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F111" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="G111" s="1">
         <v>1</v>
@@ -10712,19 +10709,19 @@
         <v>13812345755</v>
       </c>
       <c r="T111" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U111" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V111" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="W111" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="W111" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="X111" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -11199,60 +11196,60 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B1" t="s">
         <v>363</v>
-      </c>
-      <c r="B1" t="s">
-        <v>364</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E1" t="s">
         <v>365</v>
-      </c>
-      <c r="E1" t="s">
-        <v>366</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>366</v>
+      </c>
+      <c r="H1" t="s">
         <v>367</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>368</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>369</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>370</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>371</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>372</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>373</v>
-      </c>
-      <c r="N1" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>25</v>
@@ -11261,306 +11258,306 @@
         <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J2" s="1">
         <v>43</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L2" s="1">
         <v>3440</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>383</v>
-      </c>
       <c r="E3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J3" s="1">
         <v>15</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L3" s="1">
         <v>1425</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J4" s="1">
         <v>12</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L4" s="1">
         <v>1656</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>389</v>
-      </c>
       <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J5" s="1">
         <v>8</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L5" s="1">
         <v>560</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>392</v>
-      </c>
       <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J6" s="1">
         <v>31</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L6" s="1">
         <v>2852</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>395</v>
-      </c>
       <c r="G7" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J7" s="1">
         <v>2</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L7" s="1">
         <v>360</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="G8" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L8" s="1">
         <v>188</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>25</v>
@@ -11569,42 +11566,42 @@
         <v>40</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J9" s="1">
         <v>23</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L9" s="1">
         <v>1690</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>25</v>
@@ -11613,116 +11610,116 @@
         <v>45</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J10" s="1">
         <v>36</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L10" s="1">
         <v>2156.4</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="E11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J11" s="1">
         <v>15</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L11" s="1">
         <v>1350</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>411</v>
-      </c>
       <c r="E12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J12" s="1">
         <v>45</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L12" s="1">
         <v>1620</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -11744,7 +11741,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -11759,46 +11756,46 @@
         <v>16</v>
       </c>
       <c r="F1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G1" t="s">
         <v>413</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>371</v>
+      </c>
+      <c r="I1" t="s">
         <v>414</v>
       </c>
-      <c r="H1" t="s">
-        <v>372</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>415</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>416</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>417</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" t="s">
         <v>418</v>
       </c>
-      <c r="M1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N1" t="s">
-        <v>133</v>
-      </c>
-      <c r="O1" t="s">
-        <v>113</v>
-      </c>
-      <c r="P1" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>419</v>
-      </c>
-      <c r="S1" t="s">
-        <v>420</v>
       </c>
       <c r="T1" t="s">
         <v>39</v>
@@ -11807,15 +11804,15 @@
         <v>44</v>
       </c>
       <c r="V1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>30</v>
@@ -11903,22 +11900,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -11928,17 +11925,17 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
